--- a/server-res/excel/Cfg_Status.xlsx
+++ b/server-res/excel/Cfg_Status.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,13 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>uint64</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,9 +120,6 @@
     <t>scriptid</t>
   </si>
   <si>
-    <t>int64</t>
-  </si>
-  <si>
     <t>(0-100)保留给基础类型</t>
   </si>
   <si>
@@ -227,9 +218,6 @@
     <t>attrib_change_list</t>
   </si>
   <si>
-    <t>attrib_change</t>
-  </si>
-  <si>
     <t>属性变化</t>
   </si>
   <si>
@@ -238,10 +226,6 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -260,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,6 +304,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -367,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,7 +389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,133 +620,130 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>11</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -769,29 +753,26 @@
       </c>
       <c r="K4">
         <v>0</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -805,22 +786,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -834,22 +815,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>28</v>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -866,19 +847,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
+      <c r="H8" t="s">
+        <v>24</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -892,10 +873,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -907,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -921,39 +902,40 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <f t="shared" ref="K10:K12" si="0">600000000+A10</f>
+        <v>600000101</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -965,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -974,16 +956,16 @@
         <v>60</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K13" si="0">600000000+A11</f>
-        <v>600000101</v>
+        <f t="shared" ref="K11" si="1">600000000+A11</f>
+        <v>600000102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -995,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1004,36 +986,6 @@
         <v>60</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12" si="1">600000000+A12</f>
-        <v>600000102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>103</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>60</v>
-      </c>
-      <c r="K13">
         <f t="shared" si="0"/>
         <v>600000103</v>
       </c>

--- a/server-res/excel/Cfg_Status.xlsx
+++ b/server-res/excel/Cfg_Status.xlsx
@@ -237,7 +237,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"attrib":"ATTRIB_HP_MAX","oplev":"0", "val":"100","desc":"血量上限+100"}]</t>
+    <t>[{"attrib":"ATTRIB_HP_MAX","oplev":0, "val":100,"desc":"血量上限+100"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/server-res/excel/Cfg_Status.xlsx
+++ b/server-res/excel/Cfg_Status.xlsx
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -844,7 +844,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>

--- a/server-res/excel/Cfg_Status.xlsx
+++ b/server-res/excel/Cfg_Status.xlsx
@@ -15,85 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> STATUSTYPE_NORMAL = 0,
- STATUSTYPE_DEAD  = 1, //死亡 
- STATUSTYPE_COMP  = 2, //阵营 power=阵营id
- STATUSTYPE_TRANSFORM= 3, //变形 power=变形后的模型ID
- STATUSTYPE_LEVITATE = 4, //浮空 power=0 只可被专门浮空技伤害 power=1 可以被任何技能伤害
- STATUSTYPE_DRAG  = 5, //牵引 每隔nSecs秒会向idCaster所在的位置进行位移， 每次位移距离=nPower
- STATUSTYPE_BUFF  = 21, //增益类
- STATUSTYPE_DEBUFF = 22, //减益类</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> STATUSEXPIRETYPE_TIME  = 0, //默认时间计时销毁
- STATUSEXPIRETYPE_POINT = 1, //POWER为0时销毁
- STATUSEXPIRETYPE_NEVER = 2, //必须手动/达到条件销毁</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> STATUSFLAG_NONE    = 0x0000,  //默认不可叠加,不可覆盖
- STATUSFLAG_OVERRIDE_LEV  = 0x0001,  //高等级可以覆盖低等级
- STATUSFLAG_OVERLAP   = 0x0002,  //允许叠加， 时间形的叠加时间， 数值型的叠加数值
- STATUSFLAG_PAUSE_ATTACH  = 0x0008,  //附加时默认暂停
- STATUSFLAG_DISABLE_MOVE  = 0x0010,  //禁止移动
- STATUSFLAG_DISABLE_BEATTACK = 0x0020,  //禁止被攻击
- STATUSFLAG_DISABLE_ATTACK = 0x0040,  //禁止攻击
- STATUSFLAG_BREAK_SKILL  = 0x0080,  //附加状态时打断目标的技能释放
- STATUSFLAG_UNDEATCH_DEAD = 0x0100,  //死亡不会自动移除
- STATUSFLAG_DEATCH_MOVE  = 0x0200,  //移动自动移除
- STATUSFLAG_DEATCH_BEATTACK = 0x0400,  //被攻击自动移除
- STATUSFLAG_DEATCH_ATTACK = 0x0800,  //攻击自动移除
- STATUSFLAG_DEATCH_LEAVEMAP  = 0x1000,  //离开地图自动移除
- STATUSFLAG_DEATCH_OFFLINE   = 0x2000,  //离线自动移除
- STATUSFLAG_OFFLINE_PAUSE = 0x00010000, //下线自动暂停
- STATUSFLAG_ONLINE_RESUME = 0x00020000, //上线自动恢复
- STATUSFLAG_ALLOW_PAUSE  = 0x00040000, //允许手动暂停</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,9 +31,6 @@
     <t>status_expire_type</t>
   </si>
   <si>
-    <t>status_flag</t>
-  </si>
-  <si>
     <t>max_times</t>
   </si>
   <si>
@@ -120,21 +40,9 @@
     <t>scriptid</t>
   </si>
   <si>
-    <t>(0-100)保留给基础类型</t>
-  </si>
-  <si>
     <t>状态等级</t>
   </si>
   <si>
-    <t>状态类型编号</t>
-  </si>
-  <si>
-    <t>状态过期类型</t>
-  </si>
-  <si>
-    <t>状态掩码</t>
-  </si>
-  <si>
     <t>最大可叠加次数</t>
   </si>
   <si>
@@ -159,10 +67,6 @@
     <t>变形</t>
   </si>
   <si>
-    <t>阵营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>禁止移动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,26 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0441</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0262</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以移动的隐身</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通的属性修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +118,157 @@
   </si>
   <si>
     <t>[{"attrib":"ATTRIB_HP_MAX","oplev":0, "val":100,"desc":"血量上限+100"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态类型编号  
+STATUSTYPE_NORMAL    = 1,
+STATUSTYPE_CRIME     = 2, //犯罪
+STATUSTYPE_DEAD      = 3, //死亡
+STATUSTYPE_COMP      = 4, //阵营 power=阵营id
+STATUSTYPE_TRANSFORM = 5, //变形 power=变形后的模型ID
+STATUSTYPE_DAMAGE    = 6, //受到伤害 每隔nSecs秒受到nPower的伤害
+STATUSTYPE_HIDE      = 7, //隐形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUSEXPIRETYPE_TIME  = 0, //默认时间计时销毁
+STATUSEXPIRETYPE_POINT = 1, // POWER为0时销毁
+STATUSEXPIRETYPE_NEVER = 2, //必须手动/达到条件销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等级可以覆盖低等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不考虑等级, 直接叠加， 时间形的叠加时间， 数值型的叠加数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加时默认暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止被攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加状态时打断目标的技能释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡不会自动移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动自动移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击自动移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能自动移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击他人自动移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开地图自动移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线自动移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下线自动暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线自动恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许手动暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_flag | 0x0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_flag |  0x0800</t>
+  </si>
+  <si>
+    <t>status_flag |  0x1000</t>
+  </si>
+  <si>
+    <t>status_flag |  0x2000</t>
+  </si>
+  <si>
+    <t>status_flag |  0x4000</t>
+  </si>
+  <si>
+    <t>status_flag | 0x00010000</t>
+  </si>
+  <si>
+    <t>status_flag |  0x00020000</t>
+  </si>
+  <si>
+    <t>status_flag | 0x0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_flag | 0x00040000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_flag | 0x0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_flag | 0x0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_flag | 0x0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_flag | 0x0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_flag | 0x0080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_flag | 0x0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_flag | 0x0200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_flag | 0x0400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,11 +292,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,12 +334,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -597,39 +653,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="83.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.25" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.25" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.75" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.625" style="1" customWidth="1"/>
+    <col min="26" max="27" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="83.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -640,352 +716,858 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AA1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AB1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="204.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>40100051</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>600</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>60</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>60</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" ref="AB9:AB11" si="0">600000000+A9</f>
+        <v>600000101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>60</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" ref="AB10" si="1">600000000+A10</f>
+        <v>600000102</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
         <v>60</v>
       </c>
-      <c r="K10">
-        <f t="shared" ref="K10:K12" si="0">600000000+A10</f>
-        <v>600000101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>102</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>60</v>
-      </c>
-      <c r="K11">
-        <f t="shared" ref="K11" si="1">600000000+A11</f>
-        <v>600000102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>60</v>
-      </c>
-      <c r="K12">
+      <c r="AB11">
         <f t="shared" si="0"/>
         <v>600000103</v>
       </c>
@@ -994,7 +1576,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
